--- a/Documents/JLM Diet Regression.xlsx
+++ b/Documents/JLM Diet Regression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chembug\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A69AC91F-65F0-46D1-A45C-CC047F4CFFB0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9BC40B8-147D-478D-B3C6-D1A9AB4B4DED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="122">
   <si>
     <t>Cup</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Wet Diet Wt (g)</t>
   </si>
   <si>
-    <t>=G2-D2</t>
-  </si>
-  <si>
     <t>=H2-D2</t>
   </si>
   <si>
@@ -319,6 +316,81 @@
   </si>
   <si>
     <t>10.6444</t>
+  </si>
+  <si>
+    <t>6.2791=G2-D2</t>
+  </si>
+  <si>
+    <t>6.0809</t>
+  </si>
+  <si>
+    <t>6.3096</t>
+  </si>
+  <si>
+    <t>6.0773</t>
+  </si>
+  <si>
+    <t>6.3208</t>
+  </si>
+  <si>
+    <t>6.1388</t>
+  </si>
+  <si>
+    <t>6.3033</t>
+  </si>
+  <si>
+    <t>6.1544</t>
+  </si>
+  <si>
+    <t>6.4068</t>
+  </si>
+  <si>
+    <t>6.1642</t>
+  </si>
+  <si>
+    <t>6.2621</t>
+  </si>
+  <si>
+    <t>6.4593</t>
+  </si>
+  <si>
+    <t>6.3117</t>
+  </si>
+  <si>
+    <t>6.5132</t>
+  </si>
+  <si>
+    <t>6.2717</t>
+  </si>
+  <si>
+    <t>6.8499</t>
+  </si>
+  <si>
+    <t>6.6913</t>
+  </si>
+  <si>
+    <t>6.3833</t>
+  </si>
+  <si>
+    <t>6.9617</t>
+  </si>
+  <si>
+    <t>6.4046</t>
+  </si>
+  <si>
+    <t>6.8908</t>
+  </si>
+  <si>
+    <t>6.6486</t>
+  </si>
+  <si>
+    <t>6.6047</t>
+  </si>
+  <si>
+    <t>6.7190</t>
+  </si>
+  <si>
+    <t>6.6267</t>
   </si>
 </sst>
 </file>
@@ -744,7 +816,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,28 +878,28 @@
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="G2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -841,16 +913,18 @@
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" ref="F3:F26" si="0">(E3)-(D3)</f>
         <v>0.44380000000000042</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -867,16 +941,18 @@
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>0.41199999999999992</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -893,16 +969,18 @@
         <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>0.3805000000000005</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -919,16 +997,18 @@
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>0.38180000000000014</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -945,16 +1025,18 @@
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>1.0674000000000001</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -971,16 +1053,18 @@
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>1.2407000000000004</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -997,16 +1081,18 @@
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>1.0368999999999993</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1023,16 +1109,18 @@
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>0.76130000000000031</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1049,16 +1137,18 @@
         <v>11</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>1.1650999999999998</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1075,16 +1165,18 @@
         <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>1.6528</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1101,16 +1193,18 @@
         <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>2.0618999999999987</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1127,16 +1221,18 @@
         <v>14</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>1.8285</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1153,16 +1249,18 @@
         <v>15</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="0"/>
         <v>1.7187000000000001</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1179,16 +1277,18 @@
         <v>16</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="0"/>
         <v>1.8931999999999993</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1205,16 +1305,18 @@
         <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="0"/>
         <v>2.8719000000000001</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1231,16 +1333,18 @@
         <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="0"/>
         <v>3.3215000000000003</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1257,16 +1361,18 @@
         <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="0"/>
         <v>2.8540999999999999</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1283,16 +1389,18 @@
         <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="0"/>
         <v>2.6496999999999993</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1309,16 +1417,18 @@
         <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="0"/>
         <v>2.9441000000000006</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1335,16 +1445,18 @@
         <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="0"/>
         <v>4.6385999999999994</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1364,13 +1476,15 @@
         <v>35</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="0"/>
         <v>4.8282999999999996</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1387,16 +1501,18 @@
         <v>23</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="0"/>
         <v>4.4214000000000002</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1413,16 +1529,18 @@
         <v>25</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="0"/>
         <v>2.8803999999999998</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1442,13 +1560,15 @@
         <v>35</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="0"/>
         <v>4.6357999999999988</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>

--- a/Documents/JLM Diet Regression.xlsx
+++ b/Documents/JLM Diet Regression.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chembug\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9BC40B8-147D-478D-B3C6-D1A9AB4B4DED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1C0D81F9-0149-4ED0-A96C-68FA83F4C7A7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20181002 JLM" sheetId="3" r:id="rId1"/>
+    <sheet name="Graph Setup" sheetId="4" r:id="rId2"/>
+    <sheet name="Regression Graph" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="109">
   <si>
     <t>Cup</t>
   </si>
@@ -150,39 +152,9 @@
     <t>Dry Wt 3 (g) - Date: 9-30</t>
   </si>
   <si>
-    <t>Dry Wt 4 (g) - Date: 10/1</t>
-  </si>
-  <si>
-    <t>Dry Wt 5 (g) - Date: 10/2</t>
-  </si>
-  <si>
     <t>Wet Diet Wt (g)</t>
   </si>
   <si>
-    <t>=H2-D2</t>
-  </si>
-  <si>
-    <t>=I2-D2</t>
-  </si>
-  <si>
-    <t>=J2-D2</t>
-  </si>
-  <si>
-    <t>=K2-D2</t>
-  </si>
-  <si>
-    <t>6.2136</t>
-  </si>
-  <si>
-    <t>6.0222</t>
-  </si>
-  <si>
-    <t>6.2552</t>
-  </si>
-  <si>
-    <t>6.0271</t>
-  </si>
-  <si>
     <t>6.2709</t>
   </si>
   <si>
@@ -234,27 +206,9 @@
     <t>6.2702</t>
   </si>
   <si>
-    <t>6.0130</t>
-  </si>
-  <si>
     <t>6.3337</t>
   </si>
   <si>
-    <t>6.7122</t>
-  </si>
-  <si>
-    <t>=(E2)-(D2)</t>
-  </si>
-  <si>
-    <t>6.4660</t>
-  </si>
-  <si>
-    <t>6.6672</t>
-  </si>
-  <si>
-    <t>6.4076</t>
-  </si>
-  <si>
     <t>6.6527</t>
   </si>
   <si>
@@ -309,18 +263,9 @@
     <t>10.8369</t>
   </si>
   <si>
-    <t>10.4344</t>
-  </si>
-  <si>
     <t>9.2141</t>
   </si>
   <si>
-    <t>10.6444</t>
-  </si>
-  <si>
-    <t>6.2791=G2-D2</t>
-  </si>
-  <si>
     <t>6.0809</t>
   </si>
   <si>
@@ -391,13 +336,34 @@
   </si>
   <si>
     <t>6.6267</t>
+  </si>
+  <si>
+    <t>6.2791=(G2)-(D2)</t>
+  </si>
+  <si>
+    <t>Percent change day 2-3</t>
+  </si>
+  <si>
+    <t>Day 3 Wt</t>
+  </si>
+  <si>
+    <t>Final Diet Dry Mass</t>
+  </si>
+  <si>
+    <t>Initial Wet Mass</t>
+  </si>
+  <si>
+    <t>Initial Diet Wet Mass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,16 +387,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -466,11 +452,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -499,9 +501,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -514,6 +544,1271 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>JLM Diet</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Regression</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.25101793525809274"/>
+                  <c:y val="-2.8194444444444466E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                      <a:t>y = 0.1338x - 0.004</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                      <a:t>R² = 0.9994</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1800"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Graph Setup'!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.4986000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44380000000000042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3805000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38180000000000014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0674000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2407000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0368999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76130000000000031</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1650999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6528</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0618999999999987</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8285</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7187000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8931999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8719000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3215000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8540999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6496999999999993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9441000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.6385999999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.8282999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4214000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8803999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.6357999999999988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Graph Setup'!$G$2:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>6.3700000000000756E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6400000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3300000000000125E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9700000000000522E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9500000000000099E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13429999999999964</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8099999999999632E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15120000000000022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21169999999999956</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26229999999999976</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23940000000000072</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22499999999999964</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24759999999999938</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.37759999999999927</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44799999999999951</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.37270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.35459999999999958</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.40410000000000057</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.61749999999999972</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.63619999999999965</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5884999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.38399999999999945</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.61499999999999932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-941C-459D-8FB5-19C6E6503C2B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="399565784"/>
+        <c:axId val="399566440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="399565784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Initial Diet</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> Wet Mass (g)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399566440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="399566440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Final Diet</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> Dry Mass (g)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399565784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3F03AEB9-EE3A-4861-8A42-CF48C6F041E0}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="113" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8665221" cy="6288186"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{420FDA78-B8B4-437E-BF15-0DA802A98AC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -813,10 +2108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258B70FD-7467-46A8-AC68-2C7DD91BB8AA}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,12 +2122,14 @@
     <col min="4" max="4" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" style="9" customWidth="1"/>
-    <col min="7" max="8" width="25.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="25.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25" style="14" customWidth="1"/>
+    <col min="11" max="12" width="25.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,25 +2146,24 @@
         <v>37</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1"/>
+      <c r="L1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -877,32 +2173,33 @@
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>72</v>
+      <c r="D2" s="10">
+        <v>6.2135999999999996</v>
+      </c>
+      <c r="E2" s="10">
+        <v>6.7122000000000002</v>
+      </c>
+      <c r="F2" s="6">
+        <f>(E2)-(D2)</f>
+        <v>0.4986000000000006</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="H2" s="10">
+        <v>6.2778999999999998</v>
+      </c>
+      <c r="I2" s="10">
+        <v>6.2773000000000003</v>
+      </c>
+      <c r="J2" s="13">
+        <f>(((H2)-(I2))/I2)</f>
+        <v>9.5582495658880375E-5</v>
+      </c>
+      <c r="K2"/>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -912,25 +2209,33 @@
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>73</v>
+      <c r="D3" s="11">
+        <v>6.0221999999999998</v>
+      </c>
+      <c r="E3" s="11">
+        <v>6.4660000000000002</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" ref="F3:F26" si="0">(E3)-(D3)</f>
         <v>0.44380000000000042</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="H3" s="11">
+        <v>6.0789999999999997</v>
+      </c>
+      <c r="I3" s="11">
+        <v>6.0785999999999998</v>
+      </c>
+      <c r="J3" s="13">
+        <f t="shared" ref="J3:J26" si="1">(((H3)-(I3))/I3)</f>
+        <v>6.580462606520514E-5</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -940,25 +2245,33 @@
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>74</v>
+      <c r="D4" s="11">
+        <v>6.2552000000000003</v>
+      </c>
+      <c r="E4" s="11">
+        <v>6.6672000000000002</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>0.41199999999999992</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="H4" s="11">
+        <v>6.3080999999999996</v>
+      </c>
+      <c r="I4" s="11">
+        <v>6.3085000000000004</v>
+      </c>
+      <c r="J4" s="13">
+        <f t="shared" si="1"/>
+        <v>-6.3406515019552053E-5</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -968,25 +2281,33 @@
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>75</v>
+      <c r="D5" s="11">
+        <v>6.0270999999999999</v>
+      </c>
+      <c r="E5" s="11">
+        <v>6.4076000000000004</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>0.3805000000000005</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="H5" s="11">
+        <v>6.0770999999999997</v>
+      </c>
+      <c r="I5" s="11">
+        <v>6.0768000000000004</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" si="1"/>
+        <v>4.9368088467499472E-5</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -996,25 +2317,33 @@
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>76</v>
+      <c r="D6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>0.38180000000000014</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="H6" s="11">
+        <v>6.3202999999999996</v>
+      </c>
+      <c r="I6" s="11">
+        <v>6.3204000000000002</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.5821783431532043E-5</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1024,25 +2353,33 @@
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>77</v>
+      <c r="D7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>1.0674000000000001</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H7" s="11">
+        <v>6.1379999999999999</v>
+      </c>
+      <c r="I7" s="11">
+        <v>6.1379000000000001</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="1"/>
+        <v>1.6292217207801844E-5</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1052,25 +2389,33 @@
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>78</v>
+      <c r="D8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>1.2407000000000004</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="H8" s="11">
+        <v>6.3015999999999996</v>
+      </c>
+      <c r="I8" s="11">
+        <v>6.3018999999999998</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" si="1"/>
+        <v>-4.7604690648881923E-5</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1080,25 +2425,33 @@
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>79</v>
+      <c r="D9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>1.0368999999999993</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="H9" s="11">
+        <v>6.1535000000000002</v>
+      </c>
+      <c r="I9" s="11">
+        <v>6.1536</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.6250650025963166E-5</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1108,25 +2461,33 @@
       <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>80</v>
+      <c r="D10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>0.76130000000000031</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="H10" s="11">
+        <v>6.4059999999999997</v>
+      </c>
+      <c r="I10" s="11">
+        <v>6.4059999999999997</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1136,25 +2497,33 @@
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>81</v>
+      <c r="D11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>1.1650999999999998</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="H11" s="11">
+        <v>6.1623999999999999</v>
+      </c>
+      <c r="I11" s="11">
+        <v>6.1634000000000002</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.6224810980957491E-4</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1164,25 +2533,33 @@
       <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>82</v>
+      <c r="D12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>1.6528</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="H12" s="11">
+        <v>6.2601000000000004</v>
+      </c>
+      <c r="I12" s="11">
+        <v>6.2611999999999997</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.7568517217134299E-4</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1192,25 +2569,33 @@
       <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>83</v>
+      <c r="D13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>2.0618999999999987</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="H13" s="11">
+        <v>6.4576000000000002</v>
+      </c>
+      <c r="I13" s="11">
+        <v>6.4584000000000001</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.2386968908706673E-4</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1220,25 +2605,33 @@
       <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>84</v>
+      <c r="D14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>1.8285</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="H14" s="11">
+        <v>6.3105000000000002</v>
+      </c>
+      <c r="I14" s="11">
+        <v>6.3108000000000004</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="1"/>
+        <v>-4.7537554668217812E-5</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1248,25 +2641,33 @@
       <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>85</v>
+      <c r="D15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="0"/>
         <v>1.7187000000000001</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="H15" s="11">
+        <v>6.5118</v>
+      </c>
+      <c r="I15" s="11">
+        <v>6.5122999999999998</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="1"/>
+        <v>-7.6777789720946962E-5</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1276,25 +2677,33 @@
       <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>86</v>
+      <c r="D16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="0"/>
         <v>1.8931999999999993</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="H16" s="11">
+        <v>6.2702999999999998</v>
+      </c>
+      <c r="I16" s="11">
+        <v>6.2706999999999997</v>
+      </c>
+      <c r="J16" s="13">
+        <f t="shared" si="1"/>
+        <v>-6.3788731720534539E-5</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1304,25 +2713,33 @@
       <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>87</v>
+      <c r="D17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="0"/>
         <v>2.8719000000000001</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="H17" s="11">
+        <v>6.8474000000000004</v>
+      </c>
+      <c r="I17" s="11">
+        <v>6.8476999999999997</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" si="1"/>
+        <v>-4.3810330475824124E-5</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1332,25 +2749,33 @@
       <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>88</v>
+      <c r="D18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="0"/>
         <v>3.3215000000000003</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="H18" s="11">
+        <v>6.6886000000000001</v>
+      </c>
+      <c r="I18" s="11">
+        <v>6.6894999999999998</v>
+      </c>
+      <c r="J18" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.3453920322889287E-4</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1360,25 +2785,33 @@
       <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>89</v>
+      <c r="D19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="0"/>
         <v>2.8540999999999999</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="H19" s="11">
+        <v>6.3810000000000002</v>
+      </c>
+      <c r="I19" s="11">
+        <v>6.3815</v>
+      </c>
+      <c r="J19" s="13">
+        <f t="shared" si="1"/>
+        <v>-7.8351484760592788E-5</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1388,25 +2821,33 @@
       <c r="C20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>90</v>
+      <c r="D20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="0"/>
         <v>2.6496999999999993</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="H20" s="11">
+        <v>6.9595000000000002</v>
+      </c>
+      <c r="I20" s="11">
+        <v>6.9603999999999999</v>
+      </c>
+      <c r="J20" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.2930291362560754E-4</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1416,25 +2857,33 @@
       <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>91</v>
+      <c r="D21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="0"/>
         <v>2.9441000000000006</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="H21" s="11">
+        <v>6.4027000000000003</v>
+      </c>
+      <c r="I21" s="11">
+        <v>6.4034000000000004</v>
+      </c>
+      <c r="J21" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.093169253834127E-4</v>
+      </c>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1444,25 +2893,33 @@
       <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>92</v>
+      <c r="D22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="0"/>
         <v>4.6385999999999994</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="H22" s="11">
+        <v>6.8872999999999998</v>
+      </c>
+      <c r="I22" s="11">
+        <v>6.8876999999999997</v>
+      </c>
+      <c r="J22" s="13">
+        <f t="shared" si="1"/>
+        <v>-5.8074538670377042E-5</v>
+      </c>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
@@ -1472,25 +2929,33 @@
       <c r="C23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>93</v>
+      <c r="E23" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="0"/>
         <v>4.8282999999999996</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="H23" s="11">
+        <v>6.6444999999999999</v>
+      </c>
+      <c r="I23" s="11">
+        <v>6.6448</v>
+      </c>
+      <c r="J23" s="13">
+        <f t="shared" si="1"/>
+        <v>-4.5148085721193865E-5</v>
+      </c>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1500,25 +2965,33 @@
       <c r="C24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>94</v>
+      <c r="D24" s="11">
+        <v>6.0129999999999999</v>
+      </c>
+      <c r="E24" s="11">
+        <v>10.4344</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="0"/>
+        <f>(E24)-(D24)</f>
         <v>4.4214000000000002</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H24" s="11">
+        <v>6.601</v>
+      </c>
+      <c r="I24" s="11">
+        <v>6.6014999999999997</v>
+      </c>
+      <c r="J24" s="13">
+        <f t="shared" si="1"/>
+        <v>-7.5740362038888577E-5</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1528,25 +3001,33 @@
       <c r="C25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>95</v>
+      <c r="D25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="0"/>
         <v>2.8803999999999998</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="H25" s="11">
+        <v>6.7168000000000001</v>
+      </c>
+      <c r="I25" s="11">
+        <v>6.7176999999999998</v>
+      </c>
+      <c r="J25" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.3397442577067729E-4</v>
+      </c>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1556,26 +3037,652 @@
       <c r="C26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>96</v>
+      <c r="D26" s="11">
+        <v>6.0086000000000004</v>
+      </c>
+      <c r="E26" s="11">
+        <v>10.644399999999999</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="0"/>
+        <f>(E26)-(D26)</f>
         <v>4.6357999999999988</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="H26" s="11">
+        <v>6.6230000000000002</v>
+      </c>
+      <c r="I26" s="11">
+        <v>6.6235999999999997</v>
+      </c>
+      <c r="J26" s="13">
+        <f t="shared" si="1"/>
+        <v>-9.0585180264431706E-5</v>
+      </c>
+      <c r="K26"/>
+      <c r="L26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21F4B8F-5DD3-47DA-B26B-10839C69DA76}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>0.4986000000000006</v>
+      </c>
+      <c r="B2" s="18">
+        <v>6.2773000000000003</v>
+      </c>
+      <c r="C2" s="18">
+        <v>6.2135999999999996</v>
+      </c>
+      <c r="D2" s="19">
+        <f>(B2)-(C2)</f>
+        <v>6.3700000000000756E-2</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="18">
+        <v>0.4986000000000006</v>
+      </c>
+      <c r="G2" s="19">
+        <v>6.3700000000000756E-2</v>
+      </c>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>0.44380000000000042</v>
+      </c>
+      <c r="B3" s="18">
+        <v>6.0785999999999998</v>
+      </c>
+      <c r="C3" s="18">
+        <v>6.0221999999999998</v>
+      </c>
+      <c r="D3" s="19">
+        <f>(B3)-(C3)</f>
+        <v>5.6400000000000006E-2</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="18">
+        <v>0.44380000000000042</v>
+      </c>
+      <c r="G3" s="19">
+        <v>5.6400000000000006E-2</v>
+      </c>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>0.41199999999999992</v>
+      </c>
+      <c r="B4" s="18">
+        <v>6.3085000000000004</v>
+      </c>
+      <c r="C4" s="18">
+        <v>6.2552000000000003</v>
+      </c>
+      <c r="D4" s="19">
+        <f>(B4)-(C4)</f>
+        <v>5.3300000000000125E-2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="18">
+        <v>0.41199999999999992</v>
+      </c>
+      <c r="G4" s="19">
+        <v>5.3300000000000125E-2</v>
+      </c>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>0.3805000000000005</v>
+      </c>
+      <c r="B5" s="18">
+        <v>6.0768000000000004</v>
+      </c>
+      <c r="C5" s="18">
+        <v>6.0270999999999999</v>
+      </c>
+      <c r="D5" s="19">
+        <f>(B5)-(C5)</f>
+        <v>4.9700000000000522E-2</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="18">
+        <v>0.3805000000000005</v>
+      </c>
+      <c r="G5" s="19">
+        <v>4.9700000000000522E-2</v>
+      </c>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>0.38180000000000014</v>
+      </c>
+      <c r="B6" s="18">
+        <v>6.3204000000000002</v>
+      </c>
+      <c r="C6" s="18">
+        <v>6.2709000000000001</v>
+      </c>
+      <c r="D6" s="19">
+        <f>(B6)-(C6)</f>
+        <v>4.9500000000000099E-2</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="18">
+        <v>0.38180000000000014</v>
+      </c>
+      <c r="G6" s="19">
+        <v>4.9500000000000099E-2</v>
+      </c>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>1.0674000000000001</v>
+      </c>
+      <c r="B7" s="18">
+        <v>6.1379000000000001</v>
+      </c>
+      <c r="C7" s="18">
+        <v>6.0007000000000001</v>
+      </c>
+      <c r="D7" s="19">
+        <f>(B7)-(C7)</f>
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="18">
+        <v>1.0674000000000001</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>1.2407000000000004</v>
+      </c>
+      <c r="B8" s="18">
+        <v>6.3018999999999998</v>
+      </c>
+      <c r="C8" s="18">
+        <v>6.1444999999999999</v>
+      </c>
+      <c r="D8" s="19">
+        <f>(B8)-(C8)</f>
+        <v>0.15739999999999998</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="18">
+        <v>1.2407000000000004</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.15739999999999998</v>
+      </c>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>1.0368999999999993</v>
+      </c>
+      <c r="B9" s="18">
+        <v>6.1536</v>
+      </c>
+      <c r="C9" s="18">
+        <v>6.0193000000000003</v>
+      </c>
+      <c r="D9" s="19">
+        <f>(B9)-(C9)</f>
+        <v>0.13429999999999964</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="18">
+        <v>1.0368999999999993</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.13429999999999964</v>
+      </c>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>0.76130000000000031</v>
+      </c>
+      <c r="B10" s="18">
+        <v>6.4059999999999997</v>
+      </c>
+      <c r="C10" s="18">
+        <v>6.3079000000000001</v>
+      </c>
+      <c r="D10" s="19">
+        <f>(B10)-(C10)</f>
+        <v>9.8099999999999632E-2</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="18">
+        <v>0.76130000000000031</v>
+      </c>
+      <c r="G10" s="19">
+        <v>9.8099999999999632E-2</v>
+      </c>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>1.1650999999999998</v>
+      </c>
+      <c r="B11" s="18">
+        <v>6.1634000000000002</v>
+      </c>
+      <c r="C11" s="18">
+        <v>6.0122</v>
+      </c>
+      <c r="D11" s="19">
+        <f>(B11)-(C11)</f>
+        <v>0.15120000000000022</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="18">
+        <v>1.1650999999999998</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0.15120000000000022</v>
+      </c>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>1.6528</v>
+      </c>
+      <c r="B12" s="18">
+        <v>6.2611999999999997</v>
+      </c>
+      <c r="C12" s="18">
+        <v>6.0495000000000001</v>
+      </c>
+      <c r="D12" s="19">
+        <f>(B12)-(C12)</f>
+        <v>0.21169999999999956</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="18">
+        <v>1.6528</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0.21169999999999956</v>
+      </c>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>2.0618999999999987</v>
+      </c>
+      <c r="B13" s="18">
+        <v>6.4584000000000001</v>
+      </c>
+      <c r="C13" s="18">
+        <v>6.1961000000000004</v>
+      </c>
+      <c r="D13" s="19">
+        <f>(B13)-(C13)</f>
+        <v>0.26229999999999976</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="18">
+        <v>2.0618999999999987</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0.26229999999999976</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>1.8285</v>
+      </c>
+      <c r="B14" s="18">
+        <v>6.3108000000000004</v>
+      </c>
+      <c r="C14" s="18">
+        <v>6.0713999999999997</v>
+      </c>
+      <c r="D14" s="19">
+        <f>(B14)-(C14)</f>
+        <v>0.23940000000000072</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="18">
+        <v>1.8285</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0.23940000000000072</v>
+      </c>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>1.7187000000000001</v>
+      </c>
+      <c r="B15" s="18">
+        <v>6.5122999999999998</v>
+      </c>
+      <c r="C15" s="18">
+        <v>6.2873000000000001</v>
+      </c>
+      <c r="D15" s="19">
+        <f>(B15)-(C15)</f>
+        <v>0.22499999999999964</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="18">
+        <v>1.7187000000000001</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0.22499999999999964</v>
+      </c>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>1.8931999999999993</v>
+      </c>
+      <c r="B16" s="18">
+        <v>6.2706999999999997</v>
+      </c>
+      <c r="C16" s="18">
+        <v>6.0231000000000003</v>
+      </c>
+      <c r="D16" s="19">
+        <f>(B16)-(C16)</f>
+        <v>0.24759999999999938</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="18">
+        <v>1.8931999999999993</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0.24759999999999938</v>
+      </c>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>2.8719000000000001</v>
+      </c>
+      <c r="B17" s="18">
+        <v>6.8476999999999997</v>
+      </c>
+      <c r="C17" s="18">
+        <v>6.4701000000000004</v>
+      </c>
+      <c r="D17" s="19">
+        <f>(B17)-(C17)</f>
+        <v>0.37759999999999927</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="18">
+        <v>2.8719000000000001</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0.37759999999999927</v>
+      </c>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>3.3215000000000003</v>
+      </c>
+      <c r="B18" s="18">
+        <v>6.6894999999999998</v>
+      </c>
+      <c r="C18" s="18">
+        <v>6.2415000000000003</v>
+      </c>
+      <c r="D18" s="19">
+        <f>(B18)-(C18)</f>
+        <v>0.44799999999999951</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="18">
+        <v>3.3215000000000003</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0.44799999999999951</v>
+      </c>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>2.8540999999999999</v>
+      </c>
+      <c r="B19" s="18">
+        <v>6.3815</v>
+      </c>
+      <c r="C19" s="18">
+        <v>6.0087999999999999</v>
+      </c>
+      <c r="D19" s="19">
+        <f>(B19)-(C19)</f>
+        <v>0.37270000000000003</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="18">
+        <v>2.8540999999999999</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0.37270000000000003</v>
+      </c>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>2.6496999999999993</v>
+      </c>
+      <c r="B20" s="18">
+        <v>6.9603999999999999</v>
+      </c>
+      <c r="C20" s="18">
+        <v>6.6058000000000003</v>
+      </c>
+      <c r="D20" s="19">
+        <f>(B20)-(C20)</f>
+        <v>0.35459999999999958</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="18">
+        <v>2.6496999999999993</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0.35459999999999958</v>
+      </c>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>2.9441000000000006</v>
+      </c>
+      <c r="B21" s="18">
+        <v>6.4034000000000004</v>
+      </c>
+      <c r="C21" s="18">
+        <v>5.9992999999999999</v>
+      </c>
+      <c r="D21" s="19">
+        <f>(B21)-(C21)</f>
+        <v>0.40410000000000057</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="18">
+        <v>2.9441000000000006</v>
+      </c>
+      <c r="G21" s="19">
+        <v>0.40410000000000057</v>
+      </c>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>4.6385999999999994</v>
+      </c>
+      <c r="B22" s="18">
+        <v>6.8876999999999997</v>
+      </c>
+      <c r="C22" s="18">
+        <v>6.2702</v>
+      </c>
+      <c r="D22" s="19">
+        <f>(B22)-(C22)</f>
+        <v>0.61749999999999972</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="18">
+        <v>4.6385999999999994</v>
+      </c>
+      <c r="G22" s="19">
+        <v>0.61749999999999972</v>
+      </c>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>4.8282999999999996</v>
+      </c>
+      <c r="B23" s="18">
+        <v>6.6448</v>
+      </c>
+      <c r="C23" s="18">
+        <v>6.0086000000000004</v>
+      </c>
+      <c r="D23" s="19">
+        <f>(B23)-(C23)</f>
+        <v>0.63619999999999965</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="18">
+        <v>4.8282999999999996</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0.63619999999999965</v>
+      </c>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>4.4214000000000002</v>
+      </c>
+      <c r="B24" s="18">
+        <v>6.6014999999999997</v>
+      </c>
+      <c r="C24" s="18">
+        <v>6.0129999999999999</v>
+      </c>
+      <c r="D24" s="19">
+        <f>(B24)-(C24)</f>
+        <v>0.5884999999999998</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="18">
+        <v>4.4214000000000002</v>
+      </c>
+      <c r="G24" s="19">
+        <v>0.5884999999999998</v>
+      </c>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>2.8803999999999998</v>
+      </c>
+      <c r="B25" s="18">
+        <v>6.7176999999999998</v>
+      </c>
+      <c r="C25" s="18">
+        <v>6.3337000000000003</v>
+      </c>
+      <c r="D25" s="19">
+        <f>(B25)-(C25)</f>
+        <v>0.38399999999999945</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="18">
+        <v>2.8803999999999998</v>
+      </c>
+      <c r="G25" s="19">
+        <v>0.38399999999999945</v>
+      </c>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
+        <v>4.6357999999999988</v>
+      </c>
+      <c r="B26" s="18">
+        <v>6.6235999999999997</v>
+      </c>
+      <c r="C26" s="18">
+        <v>6.0086000000000004</v>
+      </c>
+      <c r="D26" s="19">
+        <f>(B26)-(C26)</f>
+        <v>0.61499999999999932</v>
+      </c>
+      <c r="F26" s="20">
+        <v>4.6357999999999988</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0.61499999999999932</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/JLM Diet Regression.xlsx
+++ b/Documents/JLM Diet Regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chembug\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1C0D81F9-0149-4ED0-A96C-68FA83F4C7A7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F237416-0CF2-4455-9F29-1E2687843D33}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20181002 JLM" sheetId="3" r:id="rId1"/>
@@ -667,8 +667,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.25101793525809274"/>
-                  <c:y val="-2.8194444444444466E-2"/>
+                  <c:x val="-0.2607782673964309"/>
+                  <c:y val="-1.02789694793651E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -690,17 +690,16 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
-                      <a:t>y = 0.1338x - 0.004</a:t>
+                      <a:rPr lang="en-US" sz="3600" baseline="0"/>
+                      <a:t>D = 0.1338W - 0.004</a:t>
                     </a:r>
                     <a:br>
-                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                      <a:rPr lang="en-US" sz="3600" baseline="0"/>
                     </a:br>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                      <a:rPr lang="en-US" sz="3600" baseline="0"/>
                       <a:t>R² = 0.9994</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" sz="1800"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -961,14 +960,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
                   <a:t>Initial Diet</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> Wet Mass (g)</a:t>
+                  <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+                  <a:t> Wet Mass, W, (g)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
+                <a:endParaRPr lang="en-US" sz="1200" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1083,14 +1082,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
                   <a:t>Final Diet</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
-                  <a:t> Dry Mass (g)</a:t>
+                  <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+                  <a:t> Dry Mass, D, (g)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
+                <a:endParaRPr lang="en-US" sz="1200" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1771,10 +1770,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3F03AEB9-EE3A-4861-8A42-CF48C6F041E0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -1782,7 +1782,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665221" cy="6288186"/>
+    <xdr:ext cx="8662524" cy="6288860"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2110,7 +2110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258B70FD-7467-46A8-AC68-2C7DD91BB8AA}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L30" sqref="L30:L31"/>
     </sheetView>
   </sheetViews>
